--- a/Team-Data/2012-13/1-26-2012-13.xlsx
+++ b/Team-Data/2012-13/1-26-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -792,19 +859,19 @@
         <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -819,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -941,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -950,16 +1017,16 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM3" t="n">
         <v>28</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>27</v>
       </c>
-      <c r="AN3" t="n">
-        <v>28</v>
-      </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
@@ -998,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="BB3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>0.591</v>
+        <v>0.605</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1054,13 +1121,13 @@
         <v>0.442</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O4" t="n">
         <v>18.3</v>
@@ -1069,16 +1136,16 @@
         <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
         <v>20.1</v>
@@ -1090,7 +1157,7 @@
         <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>4.3</v>
@@ -1099,28 +1166,28 @@
         <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,13 +1196,13 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
         <v>22</v>
@@ -1150,25 +1217,25 @@
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1183,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="BC4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.256</v>
+        <v>0.238</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O5" t="n">
         <v>19.8</v>
@@ -1251,25 +1318,25 @@
         <v>26.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>6.5</v>
@@ -1278,19 +1345,19 @@
         <v>7.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1308,7 +1375,7 @@
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1332,13 +1399,13 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1347,10 +1414,10 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
@@ -1359,10 +1426,10 @@
         <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -1394,88 +1461,88 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.605</v>
+        <v>0.619</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.7</v>
+        <v>81</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M6" t="n">
         <v>13.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S6" t="n">
         <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U6" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
@@ -1484,13 +1551,13 @@
         <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
@@ -1502,19 +1569,19 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
@@ -1526,28 +1593,28 @@
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
         <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.289</v>
+        <v>0.273</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J7" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L7" t="n">
         <v>7.3</v>
       </c>
       <c r="M7" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
         <v>16.7</v>
@@ -1615,19 +1682,19 @@
         <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R7" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S7" t="n">
         <v>28.6</v>
       </c>
       <c r="T7" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.7</v>
@@ -1639,19 +1706,19 @@
         <v>3.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
         <v>21.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB7" t="n">
         <v>95.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
@@ -1675,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1696,16 +1763,16 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT7" t="n">
         <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
         <v>14</v>
@@ -1729,7 +1796,7 @@
         <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1845,7 +1912,7 @@
         <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1854,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1866,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1884,19 +1951,19 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
@@ -1905,10 +1972,10 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O9" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="R9" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S9" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V9" t="n">
         <v>15.4</v>
       </c>
       <c r="W9" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X9" t="n">
         <v>6.5</v>
@@ -2009,13 +2076,13 @@
         <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.6</v>
+        <v>103.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AD9" t="n">
         <v>3</v>
@@ -2024,16 +2091,16 @@
         <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2042,13 +2109,13 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2066,19 +2133,19 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2087,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB9" t="n">
         <v>4</v>
       </c>
       <c r="BC9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2212,16 +2279,16 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2242,13 +2309,13 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2266,10 +2333,10 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>0.605</v>
+        <v>0.619</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J11" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O11" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2370,22 +2437,22 @@
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
         <v>100.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,10 +2479,10 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2445,19 +2512,19 @@
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.522</v>
+        <v>0.511</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -2516,52 +2583,52 @@
         <v>28.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
         <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
         <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA12" t="n">
         <v>19.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.4</v>
+        <v>104.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
@@ -2579,13 +2646,13 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,34 +2661,34 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.591</v>
+        <v>0.605</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J13" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
@@ -2704,25 +2771,25 @@
         <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T13" t="n">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="U13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
@@ -2734,31 +2801,31 @@
         <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.40000000000001</v>
+        <v>91</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2767,19 +2834,19 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
@@ -2794,13 +2861,13 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2812,16 +2879,16 @@
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -2850,52 +2917,52 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.711</v>
+        <v>0.727</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
         <v>81.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
         <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O14" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P14" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R14" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T14" t="n">
         <v>42</v>
@@ -2907,25 +2974,25 @@
         <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="X14" t="n">
         <v>6.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
         <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>3</v>
@@ -2934,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2970,19 +3037,19 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3119,7 +3186,7 @@
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3161,16 +3228,16 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>19</v>
@@ -3334,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3355,19 +3422,19 @@
         <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3501,16 +3568,16 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3525,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.548</v>
+        <v>0.537</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,40 +3663,40 @@
         <v>37.5</v>
       </c>
       <c r="J18" t="n">
-        <v>86.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R18" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.8</v>
+        <v>43.4</v>
       </c>
       <c r="U18" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V18" t="n">
         <v>14.5</v>
@@ -3644,19 +3711,19 @@
         <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3680,16 +3747,16 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN18" t="n">
         <v>21</v>
       </c>
-      <c r="AM18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>20</v>
-      </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
@@ -3698,22 +3765,22 @@
         <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU18" t="n">
         <v>14</v>
       </c>
-      <c r="AT18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>13</v>
-      </c>
       <c r="AV18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3722,10 +3789,10 @@
         <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -3760,79 +3827,79 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>0.415</v>
+        <v>0.425</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
         <v>18.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.296</v>
+        <v>0.291</v>
       </c>
       <c r="O19" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q19" t="n">
         <v>0.734</v>
       </c>
       <c r="R19" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S19" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>44</v>
+        <v>44.4</v>
       </c>
       <c r="U19" t="n">
         <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
         <v>7.7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="AA19" t="n">
         <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.1</v>
@@ -3841,13 +3908,13 @@
         <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
         <v>18</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3856,16 +3923,16 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3874,34 +3941,34 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT19" t="n">
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -4041,13 +4108,13 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN20" t="n">
         <v>8</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4095,7 +4162,7 @@
         <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
         <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.634</v>
+        <v>0.65</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.377</v>
+        <v>0.383</v>
       </c>
       <c r="O21" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P21" t="n">
         <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V21" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
         <v>3.9</v>
@@ -4190,25 +4257,25 @@
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AD21" t="n">
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
         <v>6</v>
@@ -4217,13 +4284,13 @@
         <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>20</v>
@@ -4244,22 +4311,22 @@
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
@@ -4271,13 +4338,13 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4408,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>13</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -4566,25 +4633,25 @@
         <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
         <v>6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4596,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4629,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
         <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>0.419</v>
+        <v>0.405</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I24" t="n">
         <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L24" t="n">
         <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N24" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
         <v>12.4</v>
       </c>
       <c r="P24" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R24" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S24" t="n">
         <v>30.3</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
@@ -4736,31 +4803,31 @@
         <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA24" t="n">
         <v>16.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>19</v>
       </c>
       <c r="AG24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH24" t="n">
         <v>18</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>13</v>
@@ -4769,16 +4836,16 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,16 +4857,16 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT24" t="n">
         <v>22</v>
       </c>
-      <c r="AS24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>23</v>
-      </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
@@ -4820,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -4852,112 +4919,112 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.341</v>
+        <v>0.349</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J25" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L25" t="n">
         <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P25" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R25" t="n">
         <v>11.3</v>
       </c>
       <c r="S25" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T25" t="n">
         <v>40.5</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W25" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB25" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4981,7 +5048,7 @@
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
@@ -4990,22 +5057,22 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB25" t="n">
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48.8</v>
@@ -5052,40 +5119,40 @@
         <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K26" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
         <v>24.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P26" t="n">
         <v>21.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T26" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V26" t="n">
         <v>14.9</v>
@@ -5094,7 +5161,7 @@
         <v>7.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
@@ -5103,16 +5170,16 @@
         <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5130,7 +5197,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
@@ -5157,31 +5224,31 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,7 +5301,7 @@
         <v>36.7</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.44</v>
@@ -5249,13 +5316,13 @@
         <v>0.356</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P27" t="n">
         <v>22.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
@@ -5270,7 +5337,7 @@
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
@@ -5282,16 +5349,16 @@
         <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.5</v>
+        <v>-6</v>
       </c>
       <c r="AD27" t="n">
         <v>3</v>
@@ -5300,7 +5367,7 @@
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5309,16 +5376,16 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5339,16 +5406,16 @@
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.766</v>
+        <v>0.761</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J28" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.486</v>
@@ -5425,43 +5492,43 @@
         <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P28" t="n">
         <v>20.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
         <v>8.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
         <v>17.3</v>
@@ -5470,7 +5537,7 @@
         <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
         <v>8.1</v>
@@ -5491,10 +5558,10 @@
         <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5545,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
@@ -5601,25 +5668,25 @@
         <v>82.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
         <v>17</v>
       </c>
       <c r="P29" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R29" t="n">
         <v>10.7</v>
@@ -5658,19 +5725,19 @@
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI29" t="n">
         <v>19</v>
@@ -5679,16 +5746,16 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -5697,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -5762,85 +5829,85 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J30" t="n">
         <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L30" t="n">
         <v>6.3</v>
       </c>
       <c r="M30" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
         <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X30" t="n">
         <v>6.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA30" t="n">
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,19 +5919,19 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>17</v>
       </c>
-      <c r="AI30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>16</v>
-      </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5882,34 +5949,34 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.262</v>
+        <v>0.244</v>
       </c>
       <c r="H31" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I31" t="n">
         <v>35</v>
       </c>
       <c r="J31" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.421</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="N31" t="n">
         <v>0.342</v>
@@ -5983,7 +6050,7 @@
         <v>20.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
         <v>11.2</v>
@@ -5998,31 +6065,31 @@
         <v>21.5</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" t="n">
         <v>4.9</v>
       </c>
-      <c r="Y31" t="n">
-        <v>5</v>
-      </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4.9</v>
+        <v>-5.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6046,13 +6113,13 @@
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6070,34 +6137,34 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-26-2012-13</t>
+          <t>2013-01-26</t>
         </is>
       </c>
     </row>
